--- a/v0.7/ValueSet-billing-subgroup-categories.xlsx
+++ b/v0.7/ValueSet-billing-subgroup-categories.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="256">
   <si>
     <t>Property</t>
   </si>
@@ -111,7 +111,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>http://hcxprotocol.io/codes/billing-subgroup-category</t>
+    <t>https://irdai.gov.in/benefit-billing-subgroup-code</t>
   </si>
   <si>
     <t>101000</t>
@@ -361,6 +361,9 @@
     <t>Taxes</t>
   </si>
   <si>
+    <t>https://irdai.gov.in/benefit-billing-subgroup-packagecode</t>
+  </si>
+  <si>
     <t>901000</t>
   </si>
   <si>
@@ -464,6 +467,9 @@
     <t>Vascular Surgery</t>
   </si>
   <si>
+    <t>https://pmjay.gov.in/benefit-billing-subgroup-packagecode</t>
+  </si>
+  <si>
     <t>BM</t>
   </si>
   <si>
@@ -609,6 +615,9 @@
   </si>
   <si>
     <t>Unspecified Surgical Package</t>
+  </si>
+  <si>
+    <t>https://mjpjay.gov.in/benefit-billing-subgroup-packagecode</t>
   </si>
   <si>
     <t>M1</t>
@@ -1923,14 +1932,14 @@
         <v>31</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>35</v>
@@ -1944,14 +1953,14 @@
         <v>31</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>35</v>
@@ -1965,14 +1974,14 @@
         <v>31</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>35</v>
@@ -1986,14 +1995,14 @@
         <v>31</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>35</v>
@@ -2007,14 +2016,14 @@
         <v>31</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>35</v>
@@ -2028,14 +2037,14 @@
         <v>31</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>35</v>
@@ -2049,14 +2058,14 @@
         <v>31</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>35</v>
@@ -2070,14 +2079,14 @@
         <v>31</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>35</v>
@@ -2091,14 +2100,14 @@
         <v>31</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>35</v>
@@ -2112,14 +2121,14 @@
         <v>31</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>35</v>
@@ -2133,14 +2142,14 @@
         <v>31</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>35</v>
@@ -2154,14 +2163,14 @@
         <v>31</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>35</v>
@@ -2175,14 +2184,14 @@
         <v>31</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>35</v>
@@ -2196,14 +2205,14 @@
         <v>31</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>35</v>
@@ -2217,14 +2226,14 @@
         <v>31</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>35</v>
@@ -2238,14 +2247,14 @@
         <v>31</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>35</v>
@@ -2259,14 +2268,14 @@
         <v>31</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>35</v>
@@ -2280,14 +2289,14 @@
         <v>31</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>35</v>
@@ -2301,14 +2310,14 @@
         <v>31</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>35</v>
@@ -2322,14 +2331,14 @@
         <v>31</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>35</v>
@@ -2343,14 +2352,14 @@
         <v>31</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>35</v>
@@ -2364,14 +2373,14 @@
         <v>31</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>35</v>
@@ -2385,14 +2394,14 @@
         <v>31</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>35</v>
@@ -2406,14 +2415,14 @@
         <v>31</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>35</v>
@@ -2427,14 +2436,14 @@
         <v>31</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>35</v>
@@ -2448,14 +2457,14 @@
         <v>31</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>35</v>
@@ -2469,14 +2478,14 @@
         <v>31</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>35</v>
@@ -2490,14 +2499,14 @@
         <v>31</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>35</v>
@@ -2511,14 +2520,14 @@
         <v>31</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>35</v>
@@ -2532,14 +2541,14 @@
         <v>31</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>35</v>
@@ -2553,14 +2562,14 @@
         <v>31</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>35</v>
@@ -2574,14 +2583,14 @@
         <v>31</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>35</v>
@@ -2595,14 +2604,14 @@
         <v>31</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>35</v>
@@ -2616,14 +2625,14 @@
         <v>31</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>35</v>
@@ -2637,14 +2646,14 @@
         <v>31</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>35</v>
@@ -2658,14 +2667,14 @@
         <v>31</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>35</v>
@@ -2679,14 +2688,14 @@
         <v>31</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>35</v>
@@ -2700,14 +2709,14 @@
         <v>31</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>35</v>
@@ -2721,14 +2730,14 @@
         <v>31</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>35</v>
@@ -2742,14 +2751,14 @@
         <v>31</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>35</v>
@@ -2763,14 +2772,14 @@
         <v>31</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>35</v>
@@ -2784,14 +2793,14 @@
         <v>31</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>35</v>
@@ -2805,14 +2814,14 @@
         <v>31</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>35</v>
@@ -2826,14 +2835,14 @@
         <v>31</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>35</v>
@@ -2847,14 +2856,14 @@
         <v>31</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>35</v>
@@ -2868,14 +2877,14 @@
         <v>31</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>35</v>
@@ -2889,14 +2898,14 @@
         <v>31</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>35</v>
@@ -2910,14 +2919,14 @@
         <v>31</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>35</v>
@@ -2931,14 +2940,14 @@
         <v>31</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>35</v>
@@ -2952,14 +2961,14 @@
         <v>31</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>35</v>
@@ -2973,14 +2982,14 @@
         <v>31</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>35</v>
@@ -2994,14 +3003,14 @@
         <v>31</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>35</v>
@@ -3015,14 +3024,14 @@
         <v>31</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>35</v>
@@ -3036,14 +3045,14 @@
         <v>31</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>35</v>
@@ -3057,14 +3066,14 @@
         <v>31</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>35</v>
@@ -3078,14 +3087,14 @@
         <v>31</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>35</v>
@@ -3099,14 +3108,14 @@
         <v>31</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>35</v>
@@ -3120,14 +3129,14 @@
         <v>31</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E100" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>35</v>
@@ -3141,14 +3150,14 @@
         <v>31</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E101" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>35</v>
@@ -3162,11 +3171,11 @@
         <v>31</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E102" t="s" s="2">
         <v>82</v>
@@ -3183,14 +3192,14 @@
         <v>31</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>35</v>
@@ -3204,14 +3213,14 @@
         <v>31</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>35</v>
@@ -3225,14 +3234,14 @@
         <v>31</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>35</v>
@@ -3246,14 +3255,14 @@
         <v>31</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E106" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>35</v>
@@ -3267,14 +3276,14 @@
         <v>31</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>35</v>
@@ -3288,14 +3297,14 @@
         <v>31</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E108" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>35</v>
@@ -3309,14 +3318,14 @@
         <v>31</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E109" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>35</v>
@@ -3330,14 +3339,14 @@
         <v>31</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E110" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F110" t="s" s="2">
         <v>35</v>
@@ -3351,14 +3360,14 @@
         <v>31</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E111" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>35</v>
@@ -3372,14 +3381,14 @@
         <v>31</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E112" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F112" t="s" s="2">
         <v>35</v>
@@ -3393,14 +3402,14 @@
         <v>31</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E113" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>35</v>
@@ -3414,14 +3423,14 @@
         <v>31</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E114" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>35</v>
@@ -3435,14 +3444,14 @@
         <v>31</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E115" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F115" t="s" s="2">
         <v>35</v>
@@ -3456,14 +3465,14 @@
         <v>31</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E116" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F116" t="s" s="2">
         <v>35</v>
@@ -3477,14 +3486,14 @@
         <v>31</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E117" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F117" t="s" s="2">
         <v>35</v>
@@ -3498,14 +3507,14 @@
         <v>31</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E118" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>35</v>
@@ -3519,14 +3528,14 @@
         <v>31</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E119" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>35</v>
